--- a/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
@@ -37,14 +37,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
@@ -90,7 +90,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -373,7 +373,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AutoFilter.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="AutoFilter" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AutoFilter'!$A$1:$A$4</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AutoFilter!$A$1:$A$4</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
